--- a/doc/pre-etude/estimation_consommation.xlsx
+++ b/doc/pre-etude/estimation_consommation.xlsx
@@ -95,10 +95,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +383,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +392,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -403,11 +403,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
       </c>
       <c r="B10">
         <f>SUM(B3:B9)</f>
-        <v>945</v>
+        <v>995</v>
       </c>
       <c r="C10">
         <f>SUM(C3:C9)</f>

--- a/doc/pre-etude/estimation_consommation.xlsx
+++ b/doc/pre-etude/estimation_consommation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>2312 Estimation du courant</t>
   </si>
@@ -32,15 +32,9 @@
     <t>PIC32</t>
   </si>
   <si>
-    <t>Module WIFI</t>
-  </si>
-  <si>
     <t>Module Ethernet</t>
   </si>
   <si>
-    <t>LEDS</t>
-  </si>
-  <si>
     <t>Relai 230V</t>
   </si>
   <si>
@@ -50,20 +44,50 @@
     <t>[mA]</t>
   </si>
   <si>
-    <t>Actif</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>ESP32-C3-WROOM</t>
+  </si>
+  <si>
+    <t>Microcontrôleur</t>
+  </si>
+  <si>
+    <t>Module Wi-fi</t>
+  </si>
+  <si>
+    <t>Commutation 230VAC</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>LEDS RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total : </t>
+  </si>
+  <si>
+    <t>Modules RFID</t>
+  </si>
+  <si>
+    <t>CHILLI UART</t>
+  </si>
+  <si>
+    <t>RFID CLICK</t>
+  </si>
+  <si>
+    <t>LEDS témoins</t>
+  </si>
+  <si>
+    <t>Maximal</t>
+  </si>
+  <si>
+    <t>Avec marge de 10% :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +95,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gentium Book Basic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gentium Book Basic"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -88,17 +129,296 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,105 +700,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>220</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
+        <f>20*3*3</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <f>20*3</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <f>SUM(B3:B9)</f>
-        <v>995</v>
-      </c>
-      <c r="C10">
-        <f>SUM(C3:C9)</f>
-        <v>2</v>
+      <c r="C11" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21">
+        <f>SUM(C3:C11)</f>
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24">
+        <f>1.1*C12</f>
+        <v>1413.5000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>